--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1560.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1560.xlsx
@@ -351,10 +351,10 @@
         <v>1.356414059852559</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.238649584578515</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1560.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1560.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.356414059852559</v>
+        <v>1.193811058998108</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.44761860370636</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.771073818206787</v>
       </c>
       <c r="D1">
-        <v>1.238649584578515</v>
+        <v>2.095736742019653</v>
       </c>
       <c r="E1">
-        <v>0.8101288157004222</v>
+        <v>0.9225821495056152</v>
       </c>
     </row>
   </sheetData>
